--- a/report.xlsx
+++ b/report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Статистика по годам" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Статистика по городам" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Статистика по годам" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Статистика по городам" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -444,9 +444,9 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="32" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -462,7 +462,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Средняя зарплата - Программист</t>
+          <t>Средняя зарплата - a</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Количество вакансий - Программист</t>
+          <t>Количество вакансий - a</t>
         </is>
       </c>
     </row>
@@ -484,13 +484,13 @@
         <v>204316</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>103546</v>
+        <v>164654</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>428</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
